--- a/Students.xlsx
+++ b/Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a931127d62228bd/Desktop/auto text/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a931127d62228bd/Desktop/clean-repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="8_{17F12946-3B04-482B-BE60-251E3AA52049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA5D0DDB-B510-4DC3-B9FF-0144813B0E8D}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="8_{17F12946-3B04-482B-BE60-251E3AA52049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD98A2D7-04A1-44DF-92DA-6D81B95710D3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FBEB244-CA29-48EC-B830-1EEBF4B4F7C5}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{7FBEB244-CA29-48EC-B830-1EEBF4B4F7C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Message</t>
-  </si>
-  <si>
     <t>Birthday</t>
   </si>
   <si>
@@ -191,87 +188,12 @@
     <t>21-08</t>
   </si>
   <si>
-    <t>Happy birthday Vetriselvan!</t>
-  </si>
-  <si>
-    <t>Happy birthday Karthick!</t>
-  </si>
-  <si>
-    <t>Happy birthday Vasanthan!</t>
-  </si>
-  <si>
-    <t>Happy birthday Sarathikumar!</t>
-  </si>
-  <si>
     <t>Saravana Kumar</t>
   </si>
   <si>
-    <t>Happy birthday Saravana Kumar!</t>
-  </si>
-  <si>
-    <t>Happy birthday Jeevgan!</t>
-  </si>
-  <si>
-    <t>Happy birthday Vignesh!</t>
-  </si>
-  <si>
-    <t>Happy birthday Suriya prakash!</t>
-  </si>
-  <si>
-    <t>Happy birthday hariharan!</t>
-  </si>
-  <si>
-    <t>Happy birthday Rithick!</t>
-  </si>
-  <si>
-    <t>Happy birthday Siva!</t>
-  </si>
-  <si>
-    <t>Happy birthday logesh!</t>
-  </si>
-  <si>
-    <t>Happy birthday Yasir Mohamed Sameer!</t>
-  </si>
-  <si>
-    <t>Happy birthday Yogeshwar!</t>
-  </si>
-  <si>
-    <t>Happy birthday prathap!</t>
-  </si>
-  <si>
-    <t>Happy birthday Ranjith!</t>
-  </si>
-  <si>
-    <t>Happy birthday Aravindhan!</t>
-  </si>
-  <si>
-    <t>Happy birthday Sivanesan!</t>
-  </si>
-  <si>
-    <t>Happy birthday Kanniyappan!</t>
-  </si>
-  <si>
-    <t>Happy birthday mohammed Irfhan!</t>
-  </si>
-  <si>
-    <t>Happy birthday Surya!</t>
-  </si>
-  <si>
-    <t>Happy birthday M. Raja!</t>
-  </si>
-  <si>
-    <t>Happy birthday keshore!</t>
-  </si>
-  <si>
-    <t>Happy birthday Mohammed asik!</t>
-  </si>
-  <si>
     <t xml:space="preserve">Viswa </t>
   </si>
   <si>
-    <t>Happy birthday Viswa!</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -293,16 +215,7 @@
     <t xml:space="preserve"> Parthiban C</t>
   </si>
   <si>
-    <t>Happy birthday vignesh V !</t>
-  </si>
-  <si>
-    <t>Happy birthday R. raja!</t>
-  </si>
-  <si>
-    <t>Happy birthday  Parthiban!</t>
-  </si>
-  <si>
-    <t>10-08</t>
+    <t>15-09</t>
   </si>
 </sst>
 </file>
@@ -702,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850858E2-DCE1-4A99-BEDA-7C5E16525DEB}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,403 +634,348 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" t="s">
-        <v>85</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
